--- a/MS Excel/Theory File.xlsx
+++ b/MS Excel/Theory File.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EduNet\NSTI_Indore25_26\MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8A7FF0-9E03-4A2D-8190-CE391AB63565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FF6B5E-5526-43BC-9FD0-FA4FFAAAD1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75EA39F7-A344-410E-99AF-450DB471366D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{75EA39F7-A344-410E-99AF-450DB471366D}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$L$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$M$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>A</t>
   </si>
@@ -183,17 +185,100 @@
   </si>
   <si>
     <t>SI Si</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Total Present</t>
+  </si>
+  <si>
+    <t>Total Person in Institute</t>
+  </si>
+  <si>
+    <t>Total Students</t>
+  </si>
+  <si>
+    <t>Total Teacher</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>xa</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Aadhar</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>OR (Voter ID)</t>
+  </si>
+  <si>
+    <t>AND (Result)</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>Re-examination</t>
+  </si>
+  <si>
+    <t>SHORT FORM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="172" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
-    <numFmt numFmtId="175" formatCode="[$₹-4009]\ #,##0.00;[$₹-4009]\ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="[$₹-4009]\ #,##0.00;[$₹-4009]\ \-#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -282,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -495,15 +580,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -527,11 +624,10 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,54 +652,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -679,13 +765,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -698,6 +777,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -714,11 +829,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B4" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0ADF5D99-EAD9-4FE1-A80F-244224C19DC4}" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A13B948E-7F72-45D4-9456-CD8A19F51445}" name="Marks" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{0ADF5D99-EAD9-4FE1-A80F-244224C19DC4}" name="Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A13B948E-7F72-45D4-9456-CD8A19F51445}" name="Marks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1065,11 +1180,10 @@
       <c r="B3" s="6">
         <v>0.2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.5</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>45922</v>
       </c>
     </row>
@@ -1082,12 +1196,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>101283010104500</v>
       </c>
     </row>
@@ -1102,451 +1216,600 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15" t="str">
+        <f>LEFT(B2,3)</f>
+        <v>Ali</v>
+      </c>
+      <c r="D2" s="15">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15">
+        <v>78</v>
+      </c>
+      <c r="F2" s="15">
+        <v>85</v>
+      </c>
+      <c r="G2" s="15">
+        <v>92</v>
+      </c>
+      <c r="H2" s="15">
+        <v>74</v>
+      </c>
+      <c r="I2" s="15">
+        <v>88</v>
+      </c>
+      <c r="J2" s="15">
+        <f>SUM(E2:I2)</f>
+        <v>417</v>
+      </c>
+      <c r="K2" s="25">
+        <f>J2/500</f>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="L2" s="15">
+        <v>95</v>
+      </c>
+      <c r="M2" s="15" t="str">
+        <f>IF(K2&gt;=0.7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>LEFT(B3,3)</f>
+        <v>Ben</v>
+      </c>
+      <c r="D3" s="15">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>65</v>
+      </c>
+      <c r="F3" s="15">
+        <v>70</v>
+      </c>
+      <c r="G3" s="15">
+        <v>58</v>
+      </c>
+      <c r="H3" s="15">
+        <v>60</v>
+      </c>
+      <c r="I3" s="15">
+        <v>66</v>
+      </c>
+      <c r="J3" s="15">
+        <f>SUM(E3:I3)</f>
+        <v>319</v>
+      </c>
+      <c r="K3" s="25">
+        <f>J3/500</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="L3" s="15">
+        <v>82</v>
+      </c>
+      <c r="M3" s="15" t="str">
+        <f>IF(K3&gt;=0.7,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C4" s="15" t="str">
+        <f t="shared" ref="C3:C11" si="0">LEFT(B4,3)</f>
+        <v>Cla</v>
+      </c>
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="D2" s="16">
+      <c r="E4" s="15">
+        <v>91</v>
+      </c>
+      <c r="F4" s="15">
+        <v>88</v>
+      </c>
+      <c r="G4" s="15">
+        <v>94</v>
+      </c>
+      <c r="H4" s="15">
+        <v>89</v>
+      </c>
+      <c r="I4" s="15">
+        <v>91</v>
+      </c>
+      <c r="J4" s="15">
+        <f>SUM(E4:I4)</f>
+        <v>453</v>
+      </c>
+      <c r="K4" s="25">
+        <f>J4/500</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L4" s="15">
+        <v>98</v>
+      </c>
+      <c r="M4" s="15" t="str">
+        <f>IF(K4&gt;=0.7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Dan</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15">
+        <v>55</v>
+      </c>
+      <c r="F5" s="15">
+        <v>60</v>
+      </c>
+      <c r="G5" s="15">
+        <v>50</v>
+      </c>
+      <c r="H5" s="15">
+        <v>52</v>
+      </c>
+      <c r="I5" s="15">
+        <v>57</v>
+      </c>
+      <c r="J5" s="15">
+        <f>SUM(E5:I5)</f>
+        <v>274</v>
+      </c>
+      <c r="K5" s="25">
+        <f>J5/500</f>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L5" s="15">
+        <v>76</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>IF(K5&gt;=0.7,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Emm</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15">
+        <v>82</v>
+      </c>
+      <c r="F6" s="15">
+        <v>78</v>
+      </c>
+      <c r="G6" s="15">
+        <v>85</v>
+      </c>
+      <c r="H6" s="15">
+        <v>80</v>
+      </c>
+      <c r="I6" s="15">
+        <v>87</v>
+      </c>
+      <c r="J6" s="15">
+        <f>SUM(E6:I6)</f>
+        <v>412</v>
+      </c>
+      <c r="K6" s="25">
+        <f>J6/500</f>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="L6" s="15">
         <v>90</v>
       </c>
-      <c r="E2" s="16">
+      <c r="M6" s="15" t="str">
+        <f>IF(K6&gt;=0.7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Fai</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15">
+        <v>72</v>
+      </c>
+      <c r="F7" s="15">
+        <v>68</v>
+      </c>
+      <c r="G7" s="15">
+        <v>75</v>
+      </c>
+      <c r="H7" s="15">
+        <v>70</v>
+      </c>
+      <c r="I7" s="15">
+        <v>73</v>
+      </c>
+      <c r="J7" s="15">
+        <f>SUM(E7:I7)</f>
+        <v>358</v>
+      </c>
+      <c r="K7" s="25">
+        <f>J7/500</f>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="L7" s="15">
         <v>88</v>
       </c>
-      <c r="F2" s="16">
-        <v>94</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="M7" s="15" t="str">
+        <f>IF(K7&gt;=0.7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Gra</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
         <v>89</v>
       </c>
-      <c r="H2" s="16">
+      <c r="F8" s="15">
+        <v>92</v>
+      </c>
+      <c r="G8" s="15">
+        <v>95</v>
+      </c>
+      <c r="H8" s="15">
+        <v>90</v>
+      </c>
+      <c r="I8" s="15">
+        <v>93</v>
+      </c>
+      <c r="J8" s="15">
+        <f>SUM(E8:I8)</f>
+        <v>459</v>
+      </c>
+      <c r="K8" s="25">
+        <f>J8/500</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L8" s="15">
+        <v>99</v>
+      </c>
+      <c r="M8" s="15" t="str">
+        <f>IF(K8&gt;=0.7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Hen</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15">
+        <v>60</v>
+      </c>
+      <c r="F9" s="15">
+        <v>65</v>
+      </c>
+      <c r="G9" s="15">
+        <v>63</v>
+      </c>
+      <c r="H9" s="15">
+        <v>58</v>
+      </c>
+      <c r="I9" s="15">
+        <v>62</v>
+      </c>
+      <c r="J9" s="15">
+        <f>SUM(E9:I9)</f>
+        <v>308</v>
+      </c>
+      <c r="K9" s="25">
+        <f>J9/500</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="L9" s="15">
+        <v>84</v>
+      </c>
+      <c r="M9" s="15" t="str">
+        <f>IF(K9&gt;=0.7,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Isl</v>
+      </c>
+      <c r="D10" s="15">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15">
+        <v>77</v>
+      </c>
+      <c r="F10" s="15">
+        <v>74</v>
+      </c>
+      <c r="G10" s="15">
+        <v>79</v>
+      </c>
+      <c r="H10" s="15">
+        <v>73</v>
+      </c>
+      <c r="I10" s="15">
+        <v>76</v>
+      </c>
+      <c r="J10" s="15">
+        <f>SUM(E10:I10)</f>
+        <v>379</v>
+      </c>
+      <c r="K10" s="25">
+        <f>J10/500</f>
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="L10" s="15">
         <v>91</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16">
-        <v>98</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="M10" s="15" t="str">
+        <f>IF(K10&gt;=0.7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Jak</v>
+      </c>
+      <c r="D11" s="20">
         <v>10</v>
       </c>
-      <c r="D3" s="16">
-        <v>89</v>
-      </c>
-      <c r="E3" s="16">
-        <v>92</v>
-      </c>
-      <c r="F3" s="16">
-        <v>95</v>
-      </c>
-      <c r="G3" s="16">
-        <v>90</v>
-      </c>
-      <c r="H3" s="16">
-        <v>93</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16">
+      <c r="E11" s="20">
+        <v>68</v>
+      </c>
+      <c r="F11" s="20">
+        <v>70</v>
+      </c>
+      <c r="G11" s="20">
+        <v>72</v>
+      </c>
+      <c r="H11" s="20">
+        <v>66</v>
+      </c>
+      <c r="I11" s="20">
+        <v>69</v>
+      </c>
+      <c r="J11" s="15">
+        <f>SUM(E11:I11)</f>
+        <v>345</v>
+      </c>
+      <c r="K11" s="25">
+        <f>J11/500</f>
+        <v>0.69</v>
+      </c>
+      <c r="L11" s="20">
+        <v>86</v>
+      </c>
+      <c r="M11" s="15" t="str">
+        <f>IF(K11&gt;=0.7,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="27">
+        <f>AVERAGE(J2:J11)</f>
+        <v>372.4</v>
+      </c>
+      <c r="K12" s="26">
+        <f>AVERAGE(K2:K11)</f>
+        <v>0.74480000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <f>MIN(L2:L11)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <f>MAX(L2:L11)</f>
         <v>99</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="16">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16">
-        <v>82</v>
-      </c>
-      <c r="E4" s="16">
-        <v>78</v>
-      </c>
-      <c r="F4" s="16">
-        <v>85</v>
-      </c>
-      <c r="G4" s="16">
-        <v>80</v>
-      </c>
-      <c r="H4" s="16">
-        <v>87</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16">
-        <v>90</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16">
-        <v>78</v>
-      </c>
-      <c r="E5" s="16">
-        <v>85</v>
-      </c>
-      <c r="F5" s="16">
-        <v>92</v>
-      </c>
-      <c r="G5" s="16">
-        <v>74</v>
-      </c>
-      <c r="H5" s="16">
-        <v>88</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16">
-        <v>95</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="16">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16">
-        <v>77</v>
-      </c>
-      <c r="E6" s="16">
-        <v>74</v>
-      </c>
-      <c r="F6" s="16">
-        <v>79</v>
-      </c>
-      <c r="G6" s="16">
-        <v>73</v>
-      </c>
-      <c r="H6" s="16">
-        <v>76</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
-        <v>91</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="25"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16">
-        <v>72</v>
-      </c>
-      <c r="E7" s="16">
-        <v>68</v>
-      </c>
-      <c r="F7" s="16">
-        <v>75</v>
-      </c>
-      <c r="G7" s="16">
-        <v>70</v>
-      </c>
-      <c r="H7" s="16">
-        <v>73</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16">
-        <v>88</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="16">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16">
-        <v>68</v>
-      </c>
-      <c r="E8" s="16">
-        <v>70</v>
-      </c>
-      <c r="F8" s="16">
-        <v>72</v>
-      </c>
-      <c r="G8" s="16">
-        <v>66</v>
-      </c>
-      <c r="H8" s="16">
-        <v>69</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16">
-        <v>86</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="16">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16">
-        <v>65</v>
-      </c>
-      <c r="E9" s="16">
-        <v>70</v>
-      </c>
-      <c r="F9" s="16">
-        <v>58</v>
-      </c>
-      <c r="G9" s="16">
-        <v>60</v>
-      </c>
-      <c r="H9" s="16">
-        <v>66</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16">
-        <v>82</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="16">
-        <v>10</v>
-      </c>
-      <c r="D10" s="16">
-        <v>60</v>
-      </c>
-      <c r="E10" s="16">
-        <v>65</v>
-      </c>
-      <c r="F10" s="16">
-        <v>63</v>
-      </c>
-      <c r="G10" s="16">
-        <v>58</v>
-      </c>
-      <c r="H10" s="16">
-        <v>62</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16">
-        <v>84</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="21">
-        <v>10</v>
-      </c>
-      <c r="D11" s="21">
-        <v>55</v>
-      </c>
-      <c r="E11" s="21">
-        <v>60</v>
-      </c>
-      <c r="F11" s="21">
-        <v>50</v>
-      </c>
-      <c r="G11" s="21">
-        <v>52</v>
-      </c>
-      <c r="H11" s="21">
-        <v>57</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21">
-        <v>76</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q12" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L11" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
-      <sortCondition descending="1" ref="D2:D11"/>
-      <sortCondition descending="1" ref="F2:F11"/>
+  <autoFilter ref="A1:M11" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
+      <sortCondition descending="1" ref="E2:E11"/>
+      <sortCondition descending="1" ref="G2:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1554,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49B8DC-C64D-4BB0-8637-9007A53F01E5}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView topLeftCell="A10" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,223 +1831,306 @@
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="G1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>17</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="G2" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>16</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>15</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <f>COUNT(F2:F12)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>15</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <f>COUNTA(G2:G12)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>15</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(G2:G12,"S")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>16</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIF(G2:G12,"T")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>10</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>17</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>10</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>16</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>15</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="14">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="28" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
@@ -1794,4 +2140,247 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C92A8-B221-479E-854E-A8275AF1FEB6}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="29">
+        <f ca="1">NOW()</f>
+        <v>45922.62967858796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="30">
+        <f>DATE(2027,5,3)</f>
+        <v>46510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="30">
+        <f ca="1">TODAY()</f>
+        <v>45922</v>
+      </c>
+      <c r="D3">
+        <f>MONTH(B2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="31">
+        <f>TIME(13,55,55)</f>
+        <v>0.58049768518518519</v>
+      </c>
+      <c r="D4">
+        <f>DAY(B2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>YEAR(B2)</f>
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="32">
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D249-E025-4825-B0CF-F17432FAC3C1}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <f>AND(A3:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <f>NOT(C3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <f>OR(F3:G3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" ref="C4:C6" si="0">AND(A4:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" ref="D4:D6" si="1">NOT(C4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" ref="H4:H5" si="2">OR(F4:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>NOT(C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f>OR(F6:G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MS Excel/Theory File.xlsx
+++ b/MS Excel/Theory File.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EduNet\NSTI_Indore25_26\MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FF6B5E-5526-43BC-9FD0-FA4FFAAAD1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9563F7C-3F61-43FE-99B8-550004222AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{75EA39F7-A344-410E-99AF-450DB471366D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75EA39F7-A344-410E-99AF-450DB471366D}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$M$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$O$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
   <si>
     <t>A</t>
   </si>
@@ -266,6 +268,51 @@
   </si>
   <si>
     <t>SHORT FORM</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Class A Students</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Section in School</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Jash</t>
   </si>
 </sst>
 </file>
@@ -277,10 +324,10 @@
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="[$₹-4009]\ #,##0.00;[$₹-4009]\ \-#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +390,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Amanda Signature"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +418,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -600,7 +658,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,7 +722,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,12 +731,21 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -689,7 +756,207 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -829,11 +1096,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:B4" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0ADF5D99-EAD9-4FE1-A80F-244224C19DC4}" name="Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A13B948E-7F72-45D4-9456-CD8A19F51445}" name="Marks" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0ADF5D99-EAD9-4FE1-A80F-244224C19DC4}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A13B948E-7F72-45D4-9456-CD8A19F51445}" name="Marks" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="189" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,18 +1495,21 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1253,43 +1523,52 @@
         <v>10</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T1" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
@@ -1303,41 +1582,53 @@
       <c r="D2" s="15">
         <v>10</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1234567890</v>
+      </c>
+      <c r="G2" s="15">
         <v>78</v>
       </c>
-      <c r="F2" s="15">
+      <c r="H2" s="15">
         <v>85</v>
       </c>
-      <c r="G2" s="15">
+      <c r="I2" s="15">
         <v>92</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <v>74</v>
       </c>
-      <c r="I2" s="15">
+      <c r="K2" s="15">
         <v>88</v>
       </c>
-      <c r="J2" s="15">
-        <f>SUM(E2:I2)</f>
+      <c r="L2" s="15">
+        <f t="shared" ref="L2:L11" si="0">SUM(G2:K2)</f>
         <v>417</v>
       </c>
-      <c r="K2" s="25">
-        <f>J2/500</f>
+      <c r="M2" s="25">
+        <f t="shared" ref="M2:M11" si="1">L2/500</f>
         <v>0.83399999999999996</v>
       </c>
-      <c r="L2" s="15">
+      <c r="N2" s="15">
         <v>95</v>
       </c>
-      <c r="M2" s="15" t="str">
-        <f>IF(K2&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O2" s="15" t="str">
+        <f t="shared" ref="O2:O11" si="2">IF(M2&gt;=0.7,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="32"/>
+      <c r="T2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1351,41 +1642,53 @@
       <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>65</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="15">
         <v>70</v>
       </c>
-      <c r="G3" s="15">
+      <c r="I3" s="15">
         <v>58</v>
       </c>
-      <c r="H3" s="15">
+      <c r="J3" s="15">
         <v>60</v>
       </c>
-      <c r="I3" s="15">
+      <c r="K3" s="15">
         <v>66</v>
       </c>
-      <c r="J3" s="15">
-        <f>SUM(E3:I3)</f>
+      <c r="L3" s="15">
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="K3" s="25">
-        <f>J3/500</f>
+      <c r="M3" s="25">
+        <f t="shared" si="1"/>
         <v>0.63800000000000001</v>
       </c>
-      <c r="L3" s="15">
+      <c r="N3" s="15">
         <v>82</v>
       </c>
-      <c r="M3" s="15" t="str">
-        <f>IF(K3&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O3" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -1393,47 +1696,57 @@
         <v>25</v>
       </c>
       <c r="C4" s="15" t="str">
-        <f t="shared" ref="C3:C11" si="0">LEFT(B4,3)</f>
+        <f t="shared" ref="C4:C11" si="3">LEFT(B4,3)</f>
         <v>Cla</v>
       </c>
       <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15">
         <v>91</v>
       </c>
-      <c r="F4" s="15">
+      <c r="H4" s="15">
         <v>88</v>
       </c>
-      <c r="G4" s="15">
+      <c r="I4" s="15">
         <v>94</v>
       </c>
-      <c r="H4" s="15">
+      <c r="J4" s="15">
         <v>89</v>
       </c>
-      <c r="I4" s="15">
+      <c r="K4" s="15">
         <v>91</v>
       </c>
-      <c r="J4" s="15">
-        <f>SUM(E4:I4)</f>
+      <c r="L4" s="15">
+        <f t="shared" si="0"/>
         <v>453</v>
       </c>
-      <c r="K4" s="25">
-        <f>J4/500</f>
+      <c r="M4" s="25">
+        <f t="shared" si="1"/>
         <v>0.90600000000000003</v>
       </c>
-      <c r="L4" s="15">
+      <c r="N4" s="15">
         <v>98</v>
       </c>
-      <c r="M4" s="15" t="str">
-        <f>IF(K4&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O4" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="32"/>
+      <c r="T4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -1441,47 +1754,55 @@
         <v>27</v>
       </c>
       <c r="C5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Dan</v>
       </c>
       <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
         <v>55</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H5" s="15">
         <v>60</v>
       </c>
-      <c r="G5" s="15">
+      <c r="I5" s="15">
         <v>50</v>
       </c>
-      <c r="H5" s="15">
+      <c r="J5" s="15">
         <v>52</v>
       </c>
-      <c r="I5" s="15">
+      <c r="K5" s="15">
         <v>57</v>
       </c>
-      <c r="J5" s="15">
-        <f>SUM(E5:I5)</f>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="K5" s="25">
-        <f>J5/500</f>
+      <c r="M5" s="25">
+        <f t="shared" si="1"/>
         <v>0.54800000000000004</v>
       </c>
-      <c r="L5" s="15">
+      <c r="N5" s="15">
         <v>76</v>
       </c>
-      <c r="M5" s="15" t="str">
-        <f>IF(K5&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O5" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="32"/>
+      <c r="T5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
@@ -1489,47 +1810,57 @@
         <v>29</v>
       </c>
       <c r="C6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Emm</v>
       </c>
       <c r="D6" s="15">
         <v>10</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
         <v>82</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H6" s="15">
         <v>78</v>
       </c>
-      <c r="G6" s="15">
+      <c r="I6" s="15">
         <v>85</v>
       </c>
-      <c r="H6" s="15">
+      <c r="J6" s="15">
         <v>80</v>
       </c>
-      <c r="I6" s="15">
+      <c r="K6" s="15">
         <v>87</v>
       </c>
-      <c r="J6" s="15">
-        <f>SUM(E6:I6)</f>
+      <c r="L6" s="15">
+        <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="K6" s="25">
-        <f>J6/500</f>
+      <c r="M6" s="25">
+        <f t="shared" si="1"/>
         <v>0.82399999999999995</v>
       </c>
-      <c r="L6" s="15">
+      <c r="N6" s="15">
         <v>90</v>
       </c>
-      <c r="M6" s="15" t="str">
-        <f>IF(K6&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O6" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="32"/>
+      <c r="T6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
@@ -1537,47 +1868,57 @@
         <v>31</v>
       </c>
       <c r="C7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Fai</v>
       </c>
       <c r="D7" s="15">
         <v>10</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>72</v>
       </c>
-      <c r="F7" s="15">
+      <c r="H7" s="15">
         <v>68</v>
       </c>
-      <c r="G7" s="15">
+      <c r="I7" s="15">
         <v>75</v>
       </c>
-      <c r="H7" s="15">
+      <c r="J7" s="15">
         <v>70</v>
       </c>
-      <c r="I7" s="15">
+      <c r="K7" s="15">
         <v>73</v>
       </c>
-      <c r="J7" s="15">
-        <f>SUM(E7:I7)</f>
+      <c r="L7" s="15">
+        <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="K7" s="25">
-        <f>J7/500</f>
+      <c r="M7" s="25">
+        <f t="shared" si="1"/>
         <v>0.71599999999999997</v>
       </c>
-      <c r="L7" s="15">
+      <c r="N7" s="15">
         <v>88</v>
       </c>
-      <c r="M7" s="15" t="str">
-        <f>IF(K7&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O7" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="32"/>
+      <c r="T7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
@@ -1585,47 +1926,55 @@
         <v>33</v>
       </c>
       <c r="C8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Gra</v>
       </c>
       <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
         <v>89</v>
       </c>
-      <c r="F8" s="15">
+      <c r="H8" s="15">
         <v>92</v>
       </c>
-      <c r="G8" s="15">
+      <c r="I8" s="15">
         <v>95</v>
       </c>
-      <c r="H8" s="15">
+      <c r="J8" s="15">
         <v>90</v>
       </c>
-      <c r="I8" s="15">
+      <c r="K8" s="15">
         <v>93</v>
       </c>
-      <c r="J8" s="15">
-        <f>SUM(E8:I8)</f>
+      <c r="L8" s="15">
+        <f t="shared" si="0"/>
         <v>459</v>
       </c>
-      <c r="K8" s="25">
-        <f>J8/500</f>
+      <c r="M8" s="25">
+        <f t="shared" si="1"/>
         <v>0.91800000000000004</v>
       </c>
-      <c r="L8" s="15">
+      <c r="N8" s="15">
         <v>99</v>
       </c>
-      <c r="M8" s="15" t="str">
-        <f>IF(K8&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O8" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="32"/>
+      <c r="T8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
@@ -1633,47 +1982,55 @@
         <v>35</v>
       </c>
       <c r="C9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Hen</v>
       </c>
       <c r="D9" s="15">
         <v>10</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>60</v>
       </c>
-      <c r="F9" s="15">
+      <c r="H9" s="15">
         <v>65</v>
       </c>
-      <c r="G9" s="15">
+      <c r="I9" s="15">
         <v>63</v>
       </c>
-      <c r="H9" s="15">
+      <c r="J9" s="15">
         <v>58</v>
       </c>
-      <c r="I9" s="15">
+      <c r="K9" s="15">
         <v>62</v>
       </c>
-      <c r="J9" s="15">
-        <f>SUM(E9:I9)</f>
+      <c r="L9" s="15">
+        <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="K9" s="25">
-        <f>J9/500</f>
+      <c r="M9" s="25">
+        <f t="shared" si="1"/>
         <v>0.61599999999999999</v>
       </c>
-      <c r="L9" s="15">
+      <c r="N9" s="15">
         <v>84</v>
       </c>
-      <c r="M9" s="15" t="str">
-        <f>IF(K9&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O9" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="32"/>
+      <c r="T9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
@@ -1681,47 +2038,55 @@
         <v>37</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Isl</v>
       </c>
       <c r="D10" s="15">
         <v>10</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>77</v>
       </c>
-      <c r="F10" s="15">
+      <c r="H10" s="15">
         <v>74</v>
       </c>
-      <c r="G10" s="15">
+      <c r="I10" s="15">
         <v>79</v>
       </c>
-      <c r="H10" s="15">
+      <c r="J10" s="15">
         <v>73</v>
       </c>
-      <c r="I10" s="15">
+      <c r="K10" s="15">
         <v>76</v>
       </c>
-      <c r="J10" s="15">
-        <f>SUM(E10:I10)</f>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
         <v>379</v>
       </c>
-      <c r="K10" s="25">
-        <f>J10/500</f>
+      <c r="M10" s="25">
+        <f t="shared" si="1"/>
         <v>0.75800000000000001</v>
       </c>
-      <c r="L10" s="15">
+      <c r="N10" s="15">
         <v>91</v>
       </c>
-      <c r="M10" s="15" t="str">
-        <f>IF(K10&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O10" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="32"/>
+      <c r="T10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>38</v>
       </c>
@@ -1729,93 +2094,522 @@
         <v>39</v>
       </c>
       <c r="C11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Jak</v>
       </c>
       <c r="D11" s="20">
         <v>10</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
         <v>68</v>
       </c>
-      <c r="F11" s="20">
+      <c r="H11" s="20">
         <v>70</v>
       </c>
-      <c r="G11" s="20">
+      <c r="I11" s="20">
         <v>72</v>
       </c>
-      <c r="H11" s="20">
+      <c r="J11" s="20">
         <v>66</v>
       </c>
-      <c r="I11" s="20">
+      <c r="K11" s="20">
         <v>69</v>
       </c>
-      <c r="J11" s="15">
-        <f>SUM(E11:I11)</f>
+      <c r="L11" s="15">
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="K11" s="25">
-        <f>J11/500</f>
+      <c r="M11" s="25">
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-      <c r="L11" s="20">
+      <c r="N11" s="20">
         <v>86</v>
       </c>
-      <c r="M11" s="15" t="str">
-        <f>IF(K11&gt;=0.7,"PASS","FAIL")</f>
+      <c r="O11" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+      <c r="P11" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="32"/>
+      <c r="T11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="27">
-        <f>AVERAGE(J2:J11)</f>
+      <c r="L12" s="27">
+        <f>AVERAGE(L2:L11)</f>
         <v>372.4</v>
       </c>
-      <c r="K12" s="26">
-        <f>AVERAGE(K2:K11)</f>
+      <c r="M12" s="26">
+        <f>AVERAGE(M2:M11)</f>
         <v>0.74480000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
         <v>49</v>
       </c>
-      <c r="K14">
-        <f>MIN(L2:L11)</f>
+      <c r="M14">
+        <f>MIN(N2:N11)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
         <v>50</v>
       </c>
-      <c r="K15">
-        <f>MAX(L2:L11)</f>
+      <c r="M15">
+        <f>MAX(N2:N11)</f>
         <v>99</v>
       </c>
+      <c r="P15" s="31"/>
+      <c r="R15" s="31">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="31">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M11" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
-      <sortCondition descending="1" ref="E2:E11"/>
+  <autoFilter ref="A1:O11" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O11">
       <sortCondition descending="1" ref="G2:G11"/>
+      <sortCondition descending="1" ref="I2:I11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G2:J11">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>69</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L11">
+    <cfRule type="top10" dxfId="1" priority="4" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D36ED0C5-368D-48B5-ADA2-41B30B49F572}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="top10" dxfId="0" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D7F5543-E6FD-4246-A0C0-CF03D57E9074}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Mark" error="You have inputed wrong data" promptTitle="Valid" prompt="Please enter marks between 0-100" sqref="G2:J11" xr:uid="{5796EBD6-BFA8-4F25-BDF2-5123FB936D68}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11" xr:uid="{4B0626CE-3CDC-48BF-85CE-98D751E70D13}">
+      <formula1>$B$16:$B$18</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{B766FCB4-4D63-43EA-BE80-A44A52558225}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{ADB4C882-9321-408B-A786-E9F6C1D49D64}">
+      <formula1>TIME(9,0,0)</formula1>
+      <formula2>TIME(17,0,0)</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D36ED0C5-368D-48B5-ADA2-41B30B49F572}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N2:N11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D7F5543-E6FD-4246-A0C0-CF03D57E9074}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T2:T11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18814845-34DB-40C9-912A-5573B8142A8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D249-E025-4825-B0CF-F17432FAC3C1}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <f>AND(A3:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <f>NOT(C3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <f>OR(F3:G3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" ref="C4:C6" si="0">AND(A4:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" ref="D4:D5" si="1">NOT(C4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" ref="H4:H5" si="2">OR(F4:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>NOT(C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f>OR(F6:G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1170D5B3-3069-4BC4-9394-67EAF79E93A4}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="253" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(B2," ",C2)</f>
+        <v>John Smith</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,B2,C2)</f>
+        <v>John-Smith</v>
+      </c>
+      <c r="H2" t="str">
+        <f>REPT(F2,5)</f>
+        <v>John SmithJohn SmithJohn SmithJohn SmithJohn Smith</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" si="0">_xlfn.CONCAT(B3," ",C3)</f>
+        <v>Ram Verma</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="1">_xlfn.TEXTJOIN("-",TRUE,B3,C3)</f>
+        <v>Ram-Verma</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Shyam Sharma</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>Shyam-Sharma</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Rohan Gupta</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>Rohan-Gupta</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f>MID(F4,4,4)</f>
+        <v>am S</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f>RIGHT(F5,3)</f>
+        <v>pta</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B2,B3,B4,B5,)</f>
+        <v>John,Ram,Shyam,Rohan</v>
+      </c>
+      <c r="F9" t="str">
+        <f>LEFT(F4,5)</f>
+        <v>Shyam</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49B8DC-C64D-4BB0-8637-9007A53F01E5}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2142,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C92A8-B221-479E-854E-A8275AF1FEB6}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2162,7 +2956,7 @@
       </c>
       <c r="B1" s="29">
         <f ca="1">NOW()</f>
-        <v>45922.62967858796</v>
+        <v>45923.514168055553</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2180,7 +2974,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">TODAY()</f>
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="D3">
         <f>MONTH(B2)</f>
@@ -2219,168 +3013,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D249-E025-4825-B0CF-F17432FAC3C1}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <f>AND(A3:B3)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <f>NOT(C3)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <f>OR(F3:G3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <f t="shared" ref="C4:C6" si="0">AND(A4:B4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <f t="shared" ref="D4:D6" si="1">NOT(C4)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <f t="shared" ref="H4:H5" si="2">OR(F4:G4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <f>NOT(C6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <f>OR(F6:G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MS Excel/Theory File.xlsx
+++ b/MS Excel/Theory File.xlsx
@@ -8,23 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EduNet\NSTI_Indore25_26\MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9563F7C-3F61-43FE-99B8-550004222AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DC240-9F58-4EAA-B063-603E0CC6DDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75EA39F7-A344-410E-99AF-450DB471366D}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="Pivot" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId4"/>
+    <sheet name="Lookup" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$O$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
   <si>
     <t>A</t>
   </si>
@@ -192,12 +197,6 @@
     <t>Avg</t>
   </si>
   <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -313,6 +312,90 @@
   </si>
   <si>
     <t>Jash</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>LookUP</t>
+  </si>
+  <si>
+    <t>VLookUP</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>HLookUP</t>
+  </si>
+  <si>
+    <t>XLOOPUP</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>Xlookup</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of Math</t>
+  </si>
+  <si>
+    <t>Average of Science</t>
+  </si>
+  <si>
+    <t>Average of Computer</t>
+  </si>
+  <si>
+    <t>Total Average of Math</t>
+  </si>
+  <si>
+    <t>Total Average of Science</t>
+  </si>
+  <si>
+    <t>Total Average of Computer</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>Highest</t>
   </si>
 </sst>
 </file>
@@ -658,7 +741,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,18 +818,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -756,7 +848,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -794,166 +886,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1095,12 +1027,405 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jash" refreshedDate="45925.465292476852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{5A89EE01-7FE8-430F-BEE9-F37F1ED02712}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O11" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Student ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Alice Johnson"/>
+        <s v="Ben Carter"/>
+        <s v="Clara Smith"/>
+        <s v="Daniel Lee"/>
+        <s v="Emma Wilson"/>
+        <s v="Faisal Khan"/>
+        <s v="Grace Patel"/>
+        <s v="Henry Zhang"/>
+        <s v="Isla Thomas"/>
+        <s v="Jake Morris"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SHORT FORM" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Class" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Section" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="B"/>
+        <s v="C"/>
+        <s v="A"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Phone" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1234567890" maxValue="1234567890"/>
+    </cacheField>
+    <cacheField name="Math" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="91"/>
+    </cacheField>
+    <cacheField name="English" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="92"/>
+    </cacheField>
+    <cacheField name="Science" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="95"/>
+    </cacheField>
+    <cacheField name="History" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52" maxValue="90"/>
+    </cacheField>
+    <cacheField name="Computer" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="57" maxValue="93"/>
+    </cacheField>
+    <cacheField name="Total Marks" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="274" maxValue="459"/>
+    </cacheField>
+    <cacheField name="Percentage" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.54800000000000004" maxValue="0.91800000000000004"/>
+    </cacheField>
+    <cacheField name="Attendance (%)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="76" maxValue="99"/>
+    </cacheField>
+    <cacheField name="Remarks" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="S001"/>
+    <x v="0"/>
+    <s v="Ali"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="1234567890"/>
+    <n v="78"/>
+    <n v="85"/>
+    <n v="95"/>
+    <n v="74"/>
+    <n v="88"/>
+    <n v="420"/>
+    <n v="0.84"/>
+    <n v="95"/>
+    <s v="PASS"/>
+  </r>
+  <r>
+    <s v="S002"/>
+    <x v="1"/>
+    <s v="Ben"/>
+    <n v="10"/>
+    <x v="1"/>
+    <m/>
+    <n v="65"/>
+    <n v="70"/>
+    <n v="58"/>
+    <n v="60"/>
+    <n v="66"/>
+    <n v="319"/>
+    <n v="0.63800000000000001"/>
+    <n v="82"/>
+    <s v="FAIL"/>
+  </r>
+  <r>
+    <s v="S003"/>
+    <x v="2"/>
+    <s v="Cla"/>
+    <n v="10"/>
+    <x v="2"/>
+    <m/>
+    <n v="91"/>
+    <n v="88"/>
+    <n v="94"/>
+    <n v="89"/>
+    <n v="91"/>
+    <n v="453"/>
+    <n v="0.90600000000000003"/>
+    <n v="98"/>
+    <s v="PASS"/>
+  </r>
+  <r>
+    <s v="S004"/>
+    <x v="3"/>
+    <s v="Dan"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <n v="55"/>
+    <n v="60"/>
+    <n v="50"/>
+    <n v="52"/>
+    <n v="57"/>
+    <n v="274"/>
+    <n v="0.54800000000000004"/>
+    <n v="76"/>
+    <s v="FAIL"/>
+  </r>
+  <r>
+    <s v="S006"/>
+    <x v="4"/>
+    <s v="Emm"/>
+    <n v="10"/>
+    <x v="2"/>
+    <m/>
+    <n v="82"/>
+    <n v="78"/>
+    <n v="85"/>
+    <n v="80"/>
+    <n v="87"/>
+    <n v="412"/>
+    <n v="0.82399999999999995"/>
+    <n v="90"/>
+    <s v="PASS"/>
+  </r>
+  <r>
+    <s v="S005"/>
+    <x v="5"/>
+    <s v="Fai"/>
+    <n v="10"/>
+    <x v="2"/>
+    <m/>
+    <n v="72"/>
+    <n v="68"/>
+    <n v="75"/>
+    <n v="70"/>
+    <n v="73"/>
+    <n v="358"/>
+    <n v="0.71599999999999997"/>
+    <n v="88"/>
+    <s v="PASS"/>
+  </r>
+  <r>
+    <s v="S007"/>
+    <x v="6"/>
+    <s v="Gra"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <n v="89"/>
+    <n v="92"/>
+    <n v="95"/>
+    <n v="90"/>
+    <n v="93"/>
+    <n v="459"/>
+    <n v="0.91800000000000004"/>
+    <n v="99"/>
+    <s v="PASS"/>
+  </r>
+  <r>
+    <s v="S008"/>
+    <x v="7"/>
+    <s v="Hen"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <n v="60"/>
+    <n v="65"/>
+    <n v="63"/>
+    <n v="58"/>
+    <n v="62"/>
+    <n v="308"/>
+    <n v="0.61599999999999999"/>
+    <n v="84"/>
+    <s v="FAIL"/>
+  </r>
+  <r>
+    <s v="S009"/>
+    <x v="8"/>
+    <s v="Isl"/>
+    <n v="10"/>
+    <x v="1"/>
+    <m/>
+    <n v="77"/>
+    <n v="74"/>
+    <n v="79"/>
+    <n v="73"/>
+    <n v="76"/>
+    <n v="379"/>
+    <n v="0.75800000000000001"/>
+    <n v="91"/>
+    <s v="PASS"/>
+  </r>
+  <r>
+    <s v="S010"/>
+    <x v="9"/>
+    <s v="Jak"/>
+    <n v="10"/>
+    <x v="2"/>
+    <m/>
+    <n v="68"/>
+    <n v="70"/>
+    <n v="72"/>
+    <n v="66"/>
+    <n v="69"/>
+    <n v="345"/>
+    <n v="0.69"/>
+    <n v="86"/>
+    <s v="FAIL"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B8F845C-1E35-4C03-91A2-85430E7B4BB6}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="4"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="2">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Math" fld="6" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of Science" fld="8" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of Computer" fld="10" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:B4" xr:uid="{C44A2C30-CA26-4FFF-B213-2843BD4EED03}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0ADF5D99-EAD9-4FE1-A80F-244224C19DC4}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A13B948E-7F72-45D4-9456-CD8A19F51445}" name="Marks" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{0ADF5D99-EAD9-4FE1-A80F-244224C19DC4}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A13B948E-7F72-45D4-9456-CD8A19F51445}" name="Marks" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1483,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C7857-7658-4F0D-9C30-D0107E0AB288}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="189" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>10</v>
@@ -1526,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>11</v>
@@ -1564,8 +1889,8 @@
       <c r="R1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="36" t="s">
-        <v>86</v>
+      <c r="T1" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -1595,7 +1920,7 @@
         <v>85</v>
       </c>
       <c r="I2" s="15">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15">
         <v>74</v>
@@ -1605,11 +1930,11 @@
       </c>
       <c r="L2" s="15">
         <f t="shared" ref="L2:L11" si="0">SUM(G2:K2)</f>
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M2" s="25">
         <f t="shared" ref="M2:M11" si="1">L2/500</f>
-        <v>0.83399999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="N2" s="15">
         <v>95</v>
@@ -1618,8 +1943,8 @@
         <f t="shared" ref="O2:O11" si="2">IF(M2&gt;=0.7,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>89</v>
+      <c r="P2" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="22"/>
@@ -1676,8 +2001,8 @@
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="P3" s="37" t="s">
-        <v>89</v>
+      <c r="P3" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="22"/>
@@ -1736,8 +2061,8 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="P4" s="37" t="s">
-        <v>89</v>
+      <c r="P4" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="22"/>
@@ -1760,7 +2085,9 @@
       <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15">
         <v>55</v>
@@ -1792,8 +2119,8 @@
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>89</v>
+      <c r="P5" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="22"/>
@@ -1804,7 +2131,7 @@
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>29</v>
@@ -1850,8 +2177,8 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>89</v>
+      <c r="P6" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="22"/>
@@ -1862,7 +2189,7 @@
     </row>
     <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>31</v>
@@ -1908,8 +2235,8 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>89</v>
+      <c r="P7" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="22"/>
@@ -1932,7 +2259,9 @@
       <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15">
         <v>89</v>
@@ -1964,8 +2293,8 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="P8" s="37" t="s">
-        <v>89</v>
+      <c r="P8" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="22"/>
@@ -1988,7 +2317,9 @@
       <c r="D9" s="15">
         <v>10</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15">
         <v>60</v>
@@ -2020,8 +2351,8 @@
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="P9" s="37" t="s">
-        <v>89</v>
+      <c r="P9" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="22"/>
@@ -2044,7 +2375,9 @@
       <c r="D10" s="15">
         <v>10</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15">
         <v>77</v>
@@ -2076,8 +2409,8 @@
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>89</v>
+      <c r="P10" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="22"/>
@@ -2100,7 +2433,9 @@
       <c r="D11" s="20">
         <v>10</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20">
         <v>68</v>
@@ -2132,8 +2467,8 @@
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="P11" s="37" t="s">
-        <v>89</v>
+      <c r="P11" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="24"/>
@@ -2148,16 +2483,16 @@
       </c>
       <c r="L12" s="27">
         <f>AVERAGE(L2:L11)</f>
-        <v>372.4</v>
+        <v>372.7</v>
       </c>
       <c r="M12" s="26">
         <f>AVERAGE(M2:M11)</f>
-        <v>0.74480000000000002</v>
+        <v>0.74539999999999984</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="M14">
         <f>MIN(N2:N11)</f>
@@ -2166,10 +2501,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="M15">
         <f>MAX(N2:N11)</f>
@@ -2184,18 +2525,34 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="37">
+        <f>VLOOKUP(E16,A2:O11,13,TRUE)</f>
+        <v>0.69</v>
+      </c>
       <c r="R16" s="31">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>_xlfn.XLOOKUP(E16,A2:A11,M2:M11,"Not Found")</f>
+        <v>Not Found</v>
       </c>
     </row>
   </sheetData>
@@ -2266,6 +2623,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2302,7 +2660,475 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18814845-34DB-40C9-912A-5573B8142A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2560A3-7827-4F5B-B70A-07025DFE3CA6}">
+  <dimension ref="A3:M16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="159" workbookViewId="0">
+      <selection activeCell="AV11" sqref="AV11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42">
+        <v>78</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42">
+        <v>95</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42">
+        <v>88</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42">
+        <v>78</v>
+      </c>
+      <c r="L6" s="42">
+        <v>95</v>
+      </c>
+      <c r="M6" s="42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <v>65</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42">
+        <v>58</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
+        <v>66</v>
+      </c>
+      <c r="K7" s="42">
+        <v>65</v>
+      </c>
+      <c r="L7" s="42">
+        <v>58</v>
+      </c>
+      <c r="M7" s="42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="42">
+        <v>91</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42">
+        <v>94</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42">
+        <v>91</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42">
+        <v>91</v>
+      </c>
+      <c r="L8" s="42">
+        <v>94</v>
+      </c>
+      <c r="M8" s="42">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42">
+        <v>55</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
+        <v>50</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42">
+        <v>57</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42">
+        <v>55</v>
+      </c>
+      <c r="L9" s="42">
+        <v>50</v>
+      </c>
+      <c r="M9" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="42">
+        <v>82</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42">
+        <v>85</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42">
+        <v>87</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
+        <v>82</v>
+      </c>
+      <c r="L10" s="42">
+        <v>85</v>
+      </c>
+      <c r="M10" s="42">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="42">
+        <v>72</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42">
+        <v>75</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42">
+        <v>73</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>72</v>
+      </c>
+      <c r="L11" s="42">
+        <v>75</v>
+      </c>
+      <c r="M11" s="42">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42">
+        <v>89</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42">
+        <v>95</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42">
+        <v>93</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42">
+        <v>89</v>
+      </c>
+      <c r="L12" s="42">
+        <v>95</v>
+      </c>
+      <c r="M12" s="42">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42">
+        <v>60</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42">
+        <v>63</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42">
+        <v>62</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42">
+        <v>60</v>
+      </c>
+      <c r="L13" s="42">
+        <v>63</v>
+      </c>
+      <c r="M13" s="42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42">
+        <v>77</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42">
+        <v>79</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42">
+        <v>76</v>
+      </c>
+      <c r="K14" s="42">
+        <v>77</v>
+      </c>
+      <c r="L14" s="42">
+        <v>79</v>
+      </c>
+      <c r="M14" s="42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="42">
+        <v>68</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42">
+        <v>72</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42">
+        <v>69</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42">
+        <v>68</v>
+      </c>
+      <c r="L15" s="42">
+        <v>72</v>
+      </c>
+      <c r="M15" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="42">
+        <v>78.25</v>
+      </c>
+      <c r="C16" s="42">
+        <v>70.5</v>
+      </c>
+      <c r="D16" s="42">
+        <v>71</v>
+      </c>
+      <c r="E16" s="42">
+        <v>81.5</v>
+      </c>
+      <c r="F16" s="42">
+        <v>75.75</v>
+      </c>
+      <c r="G16" s="42">
+        <v>68.5</v>
+      </c>
+      <c r="H16" s="42">
+        <v>80</v>
+      </c>
+      <c r="I16" s="42">
+        <v>75</v>
+      </c>
+      <c r="J16" s="42">
+        <v>71</v>
+      </c>
+      <c r="K16" s="42">
+        <v>73.7</v>
+      </c>
+      <c r="L16" s="42">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="M16" s="42">
+        <v>76.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C57B5-00E9-4A5D-967B-964646C9A8AA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2313,7 +3139,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18814845-34DB-40C9-912A-5573B8142A8F}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>101</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>103</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="str">
+        <f>LOOKUP(E5,B2:B5,C2:C5)</f>
+        <v>Finance</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xlfn.XLOOKUP(E6,A2:A5,C2:C5)</f>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>103</v>
+      </c>
+      <c r="F6" t="str">
+        <f>LOOKUP(E6,A2:C5)</f>
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(E8,B2:C5,2)</f>
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="36">
+        <v>101</v>
+      </c>
+      <c r="C13" s="36">
+        <v>103</v>
+      </c>
+      <c r="D13" s="36">
+        <v>102</v>
+      </c>
+      <c r="E13" s="36">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>102</v>
+      </c>
+      <c r="H13" t="str">
+        <f>HLOOKUP(G13,B13:E14,2)</f>
+        <v>Alice</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80D249-E025-4825-B0CF-F17432FAC3C1}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2327,41 +3345,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="F1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2477,7 +3495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1170D5B3-3069-4BC4-9394-67EAF79E93A4}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2493,26 +3511,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>85</v>
+      <c r="A1" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(B2," ",C2)</f>
@@ -2528,12 +3546,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F5" si="0">_xlfn.CONCAT(B3," ",C3)</f>
@@ -2545,12 +3563,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2562,12 +3580,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2609,7 +3627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49B8DC-C64D-4BB0-8637-9007A53F01E5}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2648,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2671,7 +3689,7 @@
         <v>83</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2694,7 +3712,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2717,10 +3735,10 @@
         <v>85</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
       </c>
       <c r="J4">
         <f>COUNT(F2:F12)</f>
@@ -2747,10 +3765,10 @@
         <v>92</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <f>COUNTA(G2:G12)</f>
@@ -2777,10 +3795,10 @@
         <v>70</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <f>COUNTIF(G2:G12,"S")</f>
@@ -2807,10 +3825,10 @@
         <v>90</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <f>COUNTIF(G2:G12,"T")</f>
@@ -2837,7 +3855,7 @@
         <v>60</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2860,7 +3878,7 @@
         <v>78</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2883,7 +3901,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2902,12 +3920,12 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="14">
         <v>10</v>
@@ -2923,7 +3941,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C92A8-B221-479E-854E-A8275AF1FEB6}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2952,16 +3970,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="29">
         <f ca="1">NOW()</f>
-        <v>45923.514168055553</v>
+        <v>45925.466082060186</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="30">
         <f>DATE(2027,5,3)</f>
@@ -2970,11 +3988,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="30">
         <f ca="1">TODAY()</f>
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="D3">
         <f>MONTH(B2)</f>
@@ -2983,7 +4001,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="31">
         <f>TIME(13,55,55)</f>
@@ -3002,7 +4020,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
